--- a/resources/chunks/10010002.xlsx
+++ b/resources/chunks/10010002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3870" windowWidth="13380" windowHeight="7290" tabRatio="417"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13935" windowHeight="7395" tabRatio="417"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>door</t>
   </si>
   <si>
-    <t>ground</t>
+    <t>treeEl</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -84,7 +98,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -105,7 +119,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -124,6 +145,718 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -137,6 +870,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF128017"/>
+      <color rgb="FF21C94D"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -428,7 +1167,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1"/>
@@ -471,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -483,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="P1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="54" customHeight="1">
@@ -521,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
         <v>1</v>
@@ -533,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="54" customHeight="1">
@@ -571,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
         <v>1</v>
@@ -583,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="54" customHeight="1">
@@ -633,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="54" customHeight="1">
@@ -683,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="54" customHeight="1">
@@ -703,25 +1442,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
         <v>1</v>
@@ -733,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="54" customHeight="1">
@@ -762,16 +1501,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
         <v>1</v>
@@ -783,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="54" customHeight="1">
@@ -815,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
         <v>1</v>
@@ -833,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="54" customHeight="1">
@@ -868,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9" t="s">
         <v>1</v>
@@ -883,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="54" customHeight="1">
@@ -921,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" t="s">
         <v>1</v>
@@ -933,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="54" customHeight="1">
@@ -971,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" t="s">
         <v>1</v>
@@ -983,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="54" customHeight="1">
@@ -1021,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" t="s">
         <v>2</v>
@@ -1033,24 +1772,28 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="road">
+    <cfRule type="containsText" dxfId="101" priority="4" operator="containsText" text="road">
       <formula>NOT(ISERROR(SEARCH("road",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="water">
+    <cfRule type="containsText" dxfId="100" priority="5" operator="containsText" text="water">
       <formula>NOT(ISERROR(SEARCH("water",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="ground">
+    <cfRule type="containsText" dxfId="99" priority="6" operator="containsText" text="ground">
       <formula>NOT(ISERROR(SEARCH("ground",A1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:P12">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="door">
+    <cfRule type="containsText" dxfId="98" priority="3" operator="containsText" text="door">
       <formula>NOT(ISERROR(SEARCH("door",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
+      <formula>"treeEl"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
